--- a/7/2/3/2/Cuotas de fondos mutuos del mercado monetario 2002 a 2021 - Trimestral.xlsx
+++ b/7/2/3/2/Cuotas de fondos mutuos del mercado monetario 2002 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="85">
   <si>
     <t>Serie</t>
   </si>
@@ -266,6 +266,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -623,7 +626,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N74"/>
+  <dimension ref="A1:N75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3867,22 +3870,66 @@
         <v>0</v>
       </c>
       <c r="I74">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J74">
-        <v>0</v>
+        <v>-34</v>
       </c>
       <c r="K74">
-        <v>-215</v>
+        <v>-214</v>
       </c>
       <c r="L74">
-        <v>-928</v>
+        <v>-891</v>
       </c>
       <c r="M74">
         <v>1078</v>
       </c>
       <c r="N74">
         <v>-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75" t="s">
+        <v>84</v>
+      </c>
+      <c r="B75">
+        <v>-376</v>
+      </c>
+      <c r="C75">
+        <v>2</v>
+      </c>
+      <c r="D75">
+        <v>-378</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>-372</v>
+      </c>
+      <c r="G75">
+        <v>-356</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>-110</v>
+      </c>
+      <c r="J75">
+        <v>-22</v>
+      </c>
+      <c r="K75">
+        <v>51</v>
+      </c>
+      <c r="L75">
+        <v>-480</v>
+      </c>
+      <c r="M75">
+        <v>562</v>
+      </c>
+      <c r="N75">
+        <v>-17</v>
       </c>
     </row>
   </sheetData>
